--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -458,12 +458,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Foodies_SRS_050</t>
-  </si>
-  <si>
-    <t>Foodies_RTM_050</t>
-  </si>
-  <si>
     <t>V1.4</t>
   </si>
   <si>
@@ -474,6 +468,63 @@
   </si>
   <si>
     <t>Foodies_SIQ_026</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_001</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_002</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_003</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_008</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_010</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_003</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_001</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007 , Foodies_SYS_Wireframe_003</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_004</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_005 , Foodies_SYS_Wireframe_004</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_006 ,Foodies_SYS_Wireframe_005</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_009 ,Foodies_SYS_Wireframe_007</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_010 ,Foodies_SYS_Wireframe_008</t>
+  </si>
+  <si>
+    <t>V1.5</t>
+  </si>
+  <si>
+    <t>match design id with srs</t>
   </si>
 </sst>
 </file>
@@ -573,9 +624,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -588,37 +636,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -637,8 +688,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H56" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="7"/>
     <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
@@ -940,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,11 +1002,12 @@
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,923 +1036,991 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="E3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="E7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="E37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="E38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="E39" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="E42" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="D43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="D50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,7 +2076,7 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C3" t="s">
@@ -1975,24 +2095,35 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>150</v>
+      <c r="B5" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1583,9 @@
         <v>51</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>154</v>
+      </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -2035,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -515,16 +515,19 @@
     <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_009 ,Foodies_SYS_Wireframe_007</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_010 ,Foodies_SYS_Wireframe_008</t>
-  </si>
-  <si>
     <t>V1.5</t>
   </si>
   <si>
     <t>match design id with srs</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_009 ,Foodies_SYS_Wireframe_007 , Foodies_seq_Admin_delete</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_010 ,Foodies_SYS_Wireframe_008 ,Foodies_sys_seq_admin_addrestaurant</t>
+  </si>
+  <si>
+    <t>V1.6</t>
   </si>
 </sst>
 </file>
@@ -688,17 +691,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
   <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Business Requirment ID" dataDxfId="7"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
     <tableColumn id="6" name="SRS ID" dataDxfId="5"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="4"/>
-    <tableColumn id="7" name="Design ID" dataDxfId="3"/>
-    <tableColumn id="8" name="Code" dataDxfId="2"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
+    <tableColumn id="7" name="Design ID" dataDxfId="4"/>
+    <tableColumn id="8" name="Code" dataDxfId="3"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -993,21 +996,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1018,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>5</v>
@@ -1044,10 +1048,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>160</v>
@@ -1064,10 +1068,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>151</v>
@@ -1084,10 +1088,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>151</v>
@@ -1104,10 +1108,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>151</v>
@@ -1124,10 +1128,10 @@
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -1142,10 +1146,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>151</v>
@@ -1162,10 +1166,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>151</v>
@@ -1182,10 +1186,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>151</v>
@@ -1201,10 +1205,10 @@
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
         <v>151</v>
       </c>
@@ -1219,10 +1223,10 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
         <v>152</v>
       </c>
@@ -1237,10 +1241,10 @@
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
         <v>151</v>
       </c>
@@ -1256,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>159</v>
@@ -1276,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>159</v>
@@ -1296,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>161</v>
@@ -1316,10 +1320,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>154</v>
@@ -1335,10 +1339,10 @@
       <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
         <v>158</v>
       </c>
@@ -1354,10 +1358,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -1372,10 +1376,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
@@ -1390,10 +1394,10 @@
         <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -1408,10 +1412,10 @@
         <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>161</v>
@@ -1428,10 +1432,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>161</v>
@@ -1448,10 +1452,10 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>161</v>
@@ -1468,10 +1472,10 @@
         <v>38</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
@@ -1488,10 +1492,10 @@
         <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="8"/>
@@ -1506,10 +1510,10 @@
         <v>38</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -1525,10 +1529,10 @@
       <c r="B27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
         <v>161</v>
       </c>
@@ -1543,10 +1547,10 @@
       <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="8"/>
       <c r="E28" s="7" t="s">
         <v>157</v>
       </c>
@@ -1561,10 +1565,10 @@
       <c r="B29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
         <v>155</v>
       </c>
@@ -1579,10 +1583,10 @@
       <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
         <v>154</v>
       </c>
@@ -1597,10 +1601,10 @@
       <c r="B31" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8"/>
       <c r="E31" s="7" t="s">
         <v>157</v>
       </c>
@@ -1615,10 +1619,10 @@
       <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="8"/>
       <c r="E32" s="7" t="s">
         <v>162</v>
       </c>
@@ -1633,10 +1637,10 @@
       <c r="B33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
         <v>162</v>
       </c>
@@ -1651,10 +1655,10 @@
       <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
         <v>162</v>
       </c>
@@ -1669,10 +1673,10 @@
       <c r="B35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
         <v>163</v>
       </c>
@@ -1687,10 +1691,10 @@
       <c r="B36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
         <v>162</v>
       </c>
@@ -1706,10 +1710,10 @@
         <v>58</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>157</v>
@@ -1726,10 +1730,10 @@
         <v>73</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>153</v>
@@ -1746,10 +1750,10 @@
         <v>73</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>165</v>
@@ -1758,7 +1762,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -1766,13 +1770,13 @@
         <v>146</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1785,10 +1789,10 @@
       <c r="B41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
         <v>153</v>
       </c>
@@ -1796,7 +1800,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>122</v>
       </c>
@@ -1804,13 +1808,13 @@
         <v>146</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1824,10 +1828,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8"/>
@@ -1842,10 +1846,10 @@
         <v>146</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>165</v>
@@ -1862,10 +1866,10 @@
         <v>146</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>159</v>
@@ -1874,7 +1878,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>127</v>
       </c>
@@ -1882,19 +1886,19 @@
         <v>146</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>128</v>
       </c>
@@ -1902,13 +1906,13 @@
         <v>146</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1922,10 +1926,10 @@
         <v>146</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>164</v>
@@ -1942,10 +1946,10 @@
         <v>146</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>156</v>
@@ -1962,10 +1966,10 @@
         <v>38</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>157</v>
@@ -2035,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2120,12 +2124,23 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -491,15 +491,9 @@
     <t>Foodies_SYS_Wireframe_003</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001</t>
-  </si>
-  <si>
     <t>Foodies_SYS_Wireframe_001</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_007 , Foodies_SYS_Wireframe_003</t>
   </si>
   <si>
@@ -509,9 +503,6 @@
     <t>Foodies_Sys_UseCase_005 , Foodies_SYS_Wireframe_004</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_006 ,Foodies_SYS_Wireframe_005</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006</t>
   </si>
   <si>
@@ -528,6 +519,27 @@
   </si>
   <si>
     <t>V1.6</t>
+  </si>
+  <si>
+    <t>Foodies_seq_User_008 : 010</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007 , Foodies_seq_User_011: 014</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006 ,Foodies_seq_User_017 : 020</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_006 ,Foodies_SYS_Wireframe_005 ,Foodies_seq_User_015 : 016</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002 , Foodies_seq_User_001 : 003</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001 , Foodies_seq_User_001 : 007</t>
+  </si>
+  <si>
+    <t>Foodies_seq_User_006</t>
   </si>
 </sst>
 </file>
@@ -691,17 +703,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H55"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Business Requirment ID" dataDxfId="7"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="6" name="SRS ID" dataDxfId="5"/>
-    <tableColumn id="7" name="Design ID" dataDxfId="4"/>
-    <tableColumn id="8" name="Code" dataDxfId="3"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
+    <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
+    <tableColumn id="7" name="Design ID" dataDxfId="3"/>
+    <tableColumn id="8" name="Code" dataDxfId="2"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -996,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1266,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1286,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1306,7 +1318,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1332,7 +1344,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>97</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1363,7 +1375,9 @@
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1399,7 +1413,9 @@
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1418,7 +1434,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1438,7 +1454,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1458,7 +1474,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1478,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1534,7 +1550,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1576,7 +1592,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1624,7 +1640,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -1642,7 +1658,7 @@
         <v>61</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1660,7 +1676,7 @@
         <v>62</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1678,7 +1694,7 @@
         <v>63</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1696,7 +1712,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1756,7 +1772,7 @@
         <v>68</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1776,7 +1792,7 @@
         <v>69</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1814,7 +1830,7 @@
         <v>71</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1833,12 +1849,14 @@
       <c r="D43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>124</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -1872,7 +1890,7 @@
         <v>132</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1892,7 +1910,7 @@
         <v>133</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -1912,13 +1930,13 @@
         <v>134</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>129</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>135</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2041,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2124,10 +2142,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2135,10 +2153,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -540,6 +540,12 @@
   </si>
   <si>
     <t>Foodies_seq_User_006</t>
+  </si>
+  <si>
+    <t>Foodies_seq_User_009</t>
+  </si>
+  <si>
+    <t>Foodies_seq_User_010-1</t>
   </si>
 </sst>
 </file>
@@ -1008,25 +1014,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.15234375" customWidth="1"/>
+    <col min="2" max="2" width="29.84375" customWidth="1"/>
+    <col min="3" max="3" width="27.69140625" customWidth="1"/>
+    <col min="4" max="4" width="33.15234375" customWidth="1"/>
+    <col min="5" max="5" width="51.69140625" customWidth="1"/>
+    <col min="6" max="6" width="53.15234375" customWidth="1"/>
+    <col min="7" max="7" width="23.15234375" customWidth="1"/>
+    <col min="8" max="8" width="24.69140625" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>82</v>
       </c>
@@ -1072,7 +1078,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
@@ -1092,7 +1098,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>84</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
@@ -1132,7 +1138,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>86</v>
       </c>
@@ -1150,7 +1156,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>87</v>
       </c>
@@ -1170,7 +1176,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -1190,7 +1196,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>90</v>
       </c>
@@ -1228,7 +1234,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
@@ -1246,7 +1252,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>92</v>
       </c>
@@ -1264,7 +1270,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>93</v>
       </c>
@@ -1284,7 +1290,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
@@ -1304,7 +1310,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>95</v>
       </c>
@@ -1324,7 +1330,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>96</v>
       </c>
@@ -1344,7 +1350,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>97</v>
       </c>
@@ -1362,7 +1368,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>98</v>
       </c>
@@ -1382,7 +1388,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -1395,12 +1401,14 @@
       <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>100</v>
       </c>
@@ -1420,7 +1428,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
         <v>101</v>
       </c>
@@ -1440,7 +1448,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
         <v>102</v>
       </c>
@@ -1460,7 +1468,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
@@ -1480,7 +1488,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>104</v>
       </c>
@@ -1500,7 +1508,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
         <v>105</v>
       </c>
@@ -1513,12 +1521,14 @@
       <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>106</v>
       </c>
@@ -1538,7 +1548,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
@@ -1556,7 +1566,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
         <v>108</v>
       </c>
@@ -1574,7 +1584,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
         <v>109</v>
       </c>
@@ -1592,7 +1602,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
         <v>110</v>
       </c>
@@ -1610,7 +1620,7 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
         <v>111</v>
       </c>
@@ -1628,7 +1638,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>112</v>
       </c>
@@ -1646,7 +1656,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>113</v>
       </c>
@@ -1664,7 +1674,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>114</v>
       </c>
@@ -1682,7 +1692,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
         <v>115</v>
       </c>
@@ -1700,7 +1710,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>116</v>
       </c>
@@ -1718,7 +1728,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>117</v>
       </c>
@@ -1738,7 +1748,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>118</v>
       </c>
@@ -1758,7 +1768,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>119</v>
       </c>
@@ -1778,7 +1788,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -1798,7 +1808,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
         <v>121</v>
       </c>
@@ -1816,7 +1826,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
         <v>122</v>
       </c>
@@ -1836,7 +1846,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>123</v>
       </c>
@@ -1856,7 +1866,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>124</v>
       </c>
@@ -1876,7 +1886,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
         <v>126</v>
       </c>
@@ -1896,7 +1906,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
         <v>127</v>
       </c>
@@ -1916,7 +1926,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
         <v>128</v>
       </c>
@@ -1936,7 +1946,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
         <v>129</v>
       </c>
@@ -1956,7 +1966,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
         <v>130</v>
       </c>
@@ -1976,7 +1986,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
         <v>131</v>
       </c>
@@ -1996,7 +2006,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2006,7 +2016,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2016,7 +2026,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2026,7 +2036,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2036,7 +2046,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2063,15 +2073,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.3828125" customWidth="1"/>
+    <col min="3" max="3" width="29.3046875" customWidth="1"/>
+    <col min="4" max="4" width="29.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16.75" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2085,7 +2095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -2129,7 +2139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>147</v>
       </c>
@@ -2140,7 +2150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>163</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>167</v>
       </c>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1151,9 @@
       <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="195">
   <si>
     <t>ID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Foodies_SRS_029</t>
   </si>
   <si>
-    <t>Foodies_SIQ_009</t>
-  </si>
-  <si>
     <t>Foodies_SIQ_010</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t xml:space="preserve">add SRS , CRS , SIQ for Foodies_RTM_050 </t>
   </si>
   <si>
-    <t>Foodies_SIQ_026</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_001</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>Foodies_Sys_UseCase_003</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_007</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_008</t>
   </si>
   <si>
@@ -539,13 +530,76 @@
     <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001 , Foodies_seq_User_001 : 007</t>
   </si>
   <si>
-    <t>Foodies_seq_User_006</t>
-  </si>
-  <si>
     <t>Foodies_seq_User_009</t>
   </si>
   <si>
     <t>Foodies_seq_User_010-1</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_050</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_051</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_052</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_053</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_054</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_055</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_056</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_057</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_058</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_059</t>
+  </si>
+  <si>
+    <t>Foodies_RTM_060</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_050</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_051</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_052</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_053</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_054</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_055</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_056</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_057</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_058</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_059</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_060</t>
   </si>
 </sst>
 </file>
@@ -709,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="7"/>
     <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
@@ -1012,27 +1066,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.15234375" customWidth="1"/>
-    <col min="2" max="2" width="29.84375" customWidth="1"/>
-    <col min="3" max="3" width="27.69140625" customWidth="1"/>
-    <col min="4" max="4" width="33.15234375" customWidth="1"/>
-    <col min="5" max="5" width="51.69140625" customWidth="1"/>
-    <col min="6" max="6" width="53.15234375" customWidth="1"/>
-    <col min="7" max="7" width="23.15234375" customWidth="1"/>
-    <col min="8" max="8" width="24.69140625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="23.15234375" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1058,9 +1112,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
@@ -1072,15 +1126,15 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>15</v>
@@ -1092,35 +1146,35 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -1132,15 +1186,15 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>15</v>
@@ -1152,15 +1206,15 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
@@ -1172,35 +1226,35 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>15</v>
@@ -1212,15 +1266,15 @@
         <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>15</v>
@@ -1230,15 +1284,15 @@
         <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
@@ -1248,15 +1302,15 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>15</v>
@@ -1266,15 +1320,15 @@
         <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -1286,15 +1340,15 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
@@ -1306,15 +1360,15 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>15</v>
@@ -1326,73 +1380,73 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>38</v>
@@ -1404,15 +1458,15 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>38</v>
@@ -1424,15 +1478,15 @@
         <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
@@ -1444,15 +1498,15 @@
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>38</v>
@@ -1464,116 +1518,110 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="7" t="s">
@@ -1586,52 +1634,52 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>157</v>
@@ -1640,423 +1688,555 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="D32" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="D33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>145</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="39.450000000000003" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="D41" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>138</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>170</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>139</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
       <c r="D45" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>158</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>140</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>165</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>166</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="59.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="D48" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>156</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="19.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>150</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>157</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="8"/>
+    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>173</v>
+      </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="8"/>
+    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="8"/>
+    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="D54" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="8"/>
+    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2075,15 +2255,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.3828125" customWidth="1"/>
-    <col min="3" max="3" width="29.3046875" customWidth="1"/>
-    <col min="4" max="4" width="29.69140625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2097,7 +2277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2108,67 +2288,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Foodies_Sys_UseCase_003</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_008</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_010</t>
   </si>
   <si>
@@ -491,12 +488,6 @@
     <t>Foodies_SYS_Wireframe_004</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_005 , Foodies_SYS_Wireframe_004</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006</t>
-  </si>
-  <si>
     <t>V1.5</t>
   </si>
   <si>
@@ -512,12 +503,6 @@
     <t>V1.6</t>
   </si>
   <si>
-    <t>Foodies_seq_User_008 : 010</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_007 , Foodies_seq_User_011: 014</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006 ,Foodies_seq_User_017 : 020</t>
   </si>
   <si>
@@ -527,12 +512,6 @@
     <t>Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002 , Foodies_seq_User_001 : 003</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001 , Foodies_seq_User_001 : 007</t>
-  </si>
-  <si>
-    <t>Foodies_seq_User_009</t>
-  </si>
-  <si>
     <t>Foodies_seq_User_010-1</t>
   </si>
   <si>
@@ -600,6 +579,48 @@
   </si>
   <si>
     <t>Foodies_SRS_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_Sys_UseCase_001,  Foodies_SYS_Wireframe_002 </t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_010, Foodies_SYS_Wireframe_008</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_002 , Foodies_SYS_Wireframe_001 , Foodies_seq_User_004 : 007</t>
+  </si>
+  <si>
+    <t>Foodies_seq_User_009, Foodies_SYS_Wireframe_003</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007, Foodies_seq_User_008 : 010, Foodies_SYS_Wireframe_003</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_008, Foodies_SYS_Wireframe_003</t>
+  </si>
+  <si>
+    <t>Maryam M.</t>
+  </si>
+  <si>
+    <t>V1.7</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_008, Foodies_SYS_Wireframe_003, Foodies_seq_User_011:014</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_006, Foodies_SYS_Wireframe_004, Foodies_seq_User_015:016</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_003, Foodies_SYS_Wireframe_009</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_006 ,Foodies_SYS_Wireframe_006</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_009,Foodies_SYS_Wireframe_009 , Foodies_seq_Admin_delete</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,13 +1147,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1172,7 +1193,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>84</v>
       </c>
@@ -1186,13 +1207,13 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>85</v>
       </c>
@@ -1206,7 +1227,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1340,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1360,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1380,7 +1401,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1398,13 +1419,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
@@ -1418,13 +1439,13 @@
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>97</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1458,7 +1479,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1478,7 +1499,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1498,7 +1519,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1518,13 +1539,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>102</v>
       </c>
@@ -1538,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1556,13 +1577,13 @@
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>104</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1592,7 +1613,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1610,13 +1631,13 @@
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -1628,7 +1649,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1646,13 +1667,13 @@
         <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>109</v>
       </c>
@@ -1664,7 +1685,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1682,7 +1703,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1701,14 +1722,12 @@
       <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>154</v>
-      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>112</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1742,13 +1761,13 @@
         <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>114</v>
       </c>
@@ -1762,7 +1781,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1800,7 +1819,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1820,7 +1839,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1840,7 +1859,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1860,7 +1879,7 @@
         <v>68</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1880,7 +1899,7 @@
         <v>69</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -1900,7 +1919,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1920,7 +1939,7 @@
         <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2026,12 +2045,12 @@
     </row>
     <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -2040,12 +2059,12 @@
     </row>
     <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2054,12 +2073,12 @@
     </row>
     <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -2068,12 +2087,12 @@
     </row>
     <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -2082,12 +2101,12 @@
     </row>
     <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -2096,12 +2115,12 @@
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -2110,12 +2129,12 @@
     </row>
     <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -2124,12 +2143,12 @@
     </row>
     <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -2138,12 +2157,12 @@
     </row>
     <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -2152,12 +2171,12 @@
     </row>
     <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -2166,12 +2185,12 @@
     </row>
     <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -2249,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,10 +2353,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2345,13 +2364,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="209">
   <si>
     <t>ID</t>
   </si>
@@ -470,12 +470,6 @@
     <t>Foodies_Sys_UseCase_002</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_003</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_010</t>
-  </si>
-  <si>
     <t>Foodies_SYS_Wireframe_003</t>
   </si>
   <si>
@@ -494,21 +488,9 @@
     <t>match design id with srs</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_009 ,Foodies_SYS_Wireframe_007 , Foodies_seq_Admin_delete</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_010 ,Foodies_SYS_Wireframe_008 ,Foodies_sys_seq_admin_addrestaurant</t>
-  </si>
-  <si>
     <t>V1.6</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_004 ,Foodies_SYS_Wireframe_006 ,Foodies_seq_User_017 : 020</t>
-  </si>
-  <si>
-    <t>Foodies_Sys_UseCase_006 ,Foodies_SYS_Wireframe_005 ,Foodies_seq_User_015 : 016</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002 , Foodies_seq_User_001 : 003</t>
   </si>
   <si>
@@ -545,9 +527,6 @@
     <t>Foodies_RTM_059</t>
   </si>
   <si>
-    <t>Foodies_RTM_060</t>
-  </si>
-  <si>
     <t>Foodies_SRS_050</t>
   </si>
   <si>
@@ -575,9 +554,6 @@
     <t>Foodies_SRS_058</t>
   </si>
   <si>
-    <t>Foodies_SRS_059</t>
-  </si>
-  <si>
     <t>Foodies_SRS_060</t>
   </si>
   <si>
@@ -621,6 +597,51 @@
   </si>
   <si>
     <t>Foodies_Sys_UseCase_009,Foodies_SYS_Wireframe_009 , Foodies_seq_Admin_delete</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_003, Foodies_SYS_Wireframe_006, Foodies_seq_User_017:020</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_009, Foodies_SYS_Wireframe_007, Foodies_seq_Admin_delete</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_008, Foodies_Sys_UseCase_010, Foodies_sys_seq_admin_addrestaurant</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_005, Foodies_Sys_UseCase_006, Foodies_seq_User_015:016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_Sys_UseCase_010 </t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_002</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_001, Foodies_seq_User_001:007</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_009</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_007, Foodies_seq_Admin_delete, Foodies_Sys_UseCase_009</t>
+  </si>
+  <si>
+    <t>Foodies_seq_Admin_delete, Foodies_Sys_UseCase_009</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_007</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_008</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_005</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_006</t>
   </si>
 </sst>
 </file>
@@ -792,9 +813,9 @@
     <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
     <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
     <tableColumn id="7" name="Design ID" dataDxfId="3"/>
-    <tableColumn id="8" name="Code" dataDxfId="2"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
+    <tableColumn id="8" name="Code" dataDxfId="0"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1089,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1167,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1207,7 +1228,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1227,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1361,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1381,7 +1402,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1401,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1419,7 +1440,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1439,7 +1460,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1459,7 +1480,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1479,7 +1500,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1499,7 +1520,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1519,7 +1540,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1539,7 +1560,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1559,7 +1580,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1577,7 +1598,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1595,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1613,7 +1634,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1631,7 +1652,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1649,7 +1670,7 @@
         <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -1667,7 +1688,7 @@
         <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1685,7 +1706,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1703,7 +1724,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1722,7 +1743,9 @@
       <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1741,7 +1764,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1761,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1781,13 +1804,13 @@
         <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>115</v>
       </c>
@@ -1799,13 +1822,13 @@
         <v>63</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>116</v>
       </c>
@@ -1819,7 +1842,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1839,13 +1862,13 @@
         <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="8"/>
+        <v>195</v>
+      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>118</v>
       </c>
@@ -1859,7 +1882,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1879,13 +1902,13 @@
         <v>68</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="81" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -1899,13 +1922,13 @@
         <v>69</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>121</v>
       </c>
@@ -1919,13 +1942,13 @@
         <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>122</v>
       </c>
@@ -1939,7 +1962,7 @@
         <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -1954,7 +1977,9 @@
       <c r="D44" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -1968,7 +1993,9 @@
       <c r="D45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -1982,7 +2009,9 @@
       <c r="D46" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -1996,7 +2025,9 @@
       <c r="D47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2010,7 +2041,9 @@
       <c r="D48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2024,7 +2057,9 @@
       <c r="D49" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2038,161 +2073,179 @@
       <c r="D50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>202</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E54" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>174</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="8"/>
+        <v>175</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E57" s="8"/>
+        <v>176</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" s="8"/>
+        <v>177</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E59" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E60" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -2353,10 +2406,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2364,10 +2417,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2375,13 +2428,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -437,9 +437,6 @@
     <t>Foodies_SIQ_021</t>
   </si>
   <si>
-    <t>Foodies_SIQ_022</t>
-  </si>
-  <si>
     <t>Foodies_SIQ_023</t>
   </si>
   <si>
@@ -554,9 +551,6 @@
     <t>Foodies_SRS_058</t>
   </si>
   <si>
-    <t>Foodies_SRS_060</t>
-  </si>
-  <si>
     <t xml:space="preserve">Foodies_Sys_UseCase_001, Foodies_SYS_Wireframe_002 </t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>Foodies_Sys_UseCase_008, Foodies_SYS_Wireframe_003, Foodies_seq_User_011:014</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_006, Foodies_SYS_Wireframe_004, Foodies_seq_User_015:016</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_003, Foodies_SYS_Wireframe_009</t>
   </si>
   <si>
@@ -599,9 +590,6 @@
     <t>Foodies_Sys_UseCase_009,Foodies_SYS_Wireframe_009 , Foodies_seq_Admin_delete</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_003, Foodies_SYS_Wireframe_006, Foodies_seq_User_017:020</t>
-  </si>
-  <si>
     <t>Foodies_Sys_UseCase_009, Foodies_SYS_Wireframe_007, Foodies_seq_Admin_delete</t>
   </si>
   <si>
@@ -638,17 +626,100 @@
     <t>Foodies_SYS_Wireframe_005</t>
   </si>
   <si>
-    <t>Foodies_Sys_UseCase_007</t>
-  </si>
-  <si>
-    <t>Foodies_SYS_Wireframe_006</t>
+    <t>Foodies_Sys_UseCase_007 , Foodies_SYS_Wireframe_003,
+Foodies_seq_User_007</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007 , Foodies_SYS_Wireframe_003,
+Foodies_seq_User_010-2</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_006, Foodies_SYS_Wireframe_004, Foodies_seq_User_015:020</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_004
+Foodies_seq_User_011:014</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_004
+Foodies_seq_User_019:020</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_006
+Foodies_seq_User_021:024</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_003, Foodies_SYS_Wireframe_006, Foodies_seq_User_021:024</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_007
+Foodies_seq_User_025:026</t>
+  </si>
+  <si>
+    <t>Foodies_SYS_Wireframe_005
+Foodies_seq_User_015:016</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_022
+Foodies_SIQ_025</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_026</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_053</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_059</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_038</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_060</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_048</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_042</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_041</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_046</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_044</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_061</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_045</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_059</t>
+  </si>
+  <si>
+    <t>Foodies_SIQ_058</t>
+  </si>
+  <si>
+    <t>V1.8</t>
+  </si>
+  <si>
+    <t>match SIQ id with srs and edit some design ID</t>
+  </si>
+  <si>
+    <t>Aya Hamdy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +740,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -730,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -754,6 +832,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -813,9 +894,9 @@
     <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
     <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
     <tableColumn id="7" name="Design ID" dataDxfId="3"/>
-    <tableColumn id="8" name="Code" dataDxfId="0"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
+    <tableColumn id="8" name="Code" dataDxfId="2"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1110,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1188,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1202,13 +1283,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1228,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1248,7 +1329,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -1268,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1282,13 +1363,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1308,7 +1389,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -1321,12 +1402,14 @@
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1339,12 +1422,14 @@
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1362,7 +1447,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1382,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -1402,13 +1487,13 @@
         <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>94</v>
       </c>
@@ -1422,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -1440,7 +1525,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -1460,7 +1545,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1480,13 +1565,13 @@
         <v>39</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>98</v>
       </c>
@@ -1500,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1520,7 +1605,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1540,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1560,7 +1645,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1580,7 +1665,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1593,12 +1678,14 @@
       <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1616,7 +1703,7 @@
         <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1634,7 +1721,7 @@
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1652,7 +1739,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -1670,25 +1757,27 @@
         <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="D29" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1706,31 +1795,33 @@
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D31" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
@@ -1764,7 +1855,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1784,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1795,7 +1886,7 @@
         <v>114</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>76</v>
@@ -1804,7 +1895,7 @@
         <v>62</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1822,7 +1913,7 @@
         <v>63</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1833,7 +1924,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>76</v>
@@ -1842,7 +1933,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1853,7 +1944,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>137</v>
@@ -1862,7 +1953,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
@@ -1873,7 +1964,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>138</v>
@@ -1882,7 +1973,7 @@
         <v>67</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1893,7 +1984,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>139</v>
@@ -1902,27 +1993,27 @@
         <v>68</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -1933,16 +2024,16 @@
         <v>121</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1953,16 +2044,16 @@
         <v>122</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -1972,13 +2063,17 @@
       <c r="A44" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>220</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -1988,93 +2083,115 @@
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C45" s="8"/>
       <c r="D45" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
+      <c r="B50" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2082,15 +2199,19 @@
     </row>
     <row r="51" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="D51" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2098,63 +2219,79 @@
     </row>
     <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>222</v>
+      </c>
       <c r="D52" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+        <v>161</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>224</v>
+      </c>
       <c r="D53" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+        <v>162</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="D54" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+        <v>163</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="D55" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -2162,79 +2299,97 @@
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C56" s="8"/>
       <c r="D56" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="D57" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
-    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+        <v>166</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+        <v>167</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="D59" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+        <v>168</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="D60" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -2321,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2542,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2395,10 +2550,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2406,10 +2561,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2417,10 +2572,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2428,13 +2583,27 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -713,12 +713,103 @@
   </si>
   <si>
     <t>Aya Hamdy</t>
+  </si>
+  <si>
+    <t>V1.9</t>
+  </si>
+  <si>
+    <t>match SRS with code</t>
+  </si>
+  <si>
+    <t>Page : Fooides_FrontEnd_Register.php</t>
+  </si>
+  <si>
+    <t>Page : Fooides_FrontEnd_AddMenu.php</t>
+  </si>
+  <si>
+    <t>Class: UserClass.php , function : signUp($newUser)
+Page : Fooides_FrontEnd_Register.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_LoginPage.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_HomePage.php</t>
+  </si>
+  <si>
+    <t>Class : PersonClass.php , function : login($userId, $password)
+Page : Foodies_FrontEnd_LoginPage.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : showRestaurants($location)
+Page : Foodies_FrontEnd_HomePage.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : searchForRestaurant($name)
+Page : Foodies_FrontEnd_HomePage.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : showMenu($id)
+Page : Foodies_FrontEnd_HomePage.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_OffersPage.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : showRestaurantswWithOffers($location)
+Page : Foodies_FrontEnd_OffersPage.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_ViewMenu.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : showMenu($id)
+Page : Foodies_FrontEnd_OffersPage.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : 
+Page : Foodies_FrontEnd_ViewMenu.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_UserProfile.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function :
+Page : Foodies_FrontEnd_UserProfile.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_AdminProfile.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function :  makeOrder($userid)
+Page : Foodies_FrontEnd_ViewMenu.php</t>
+  </si>
+  <si>
+    <t>Class : AdminClass.php , function : addRestaurant($restaurant)
+Page : Foodies_FrontEnd_AddMenu.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_DeleteUserPage.php</t>
+  </si>
+  <si>
+    <t>Page : Foodies_FrontEnd_AddMenu.php</t>
+  </si>
+  <si>
+    <t>Class : AdminClass.php , function : seachForUser($userId) , deleteUser($userId)
+Page : Foodies_FrontEnd_DeleteUserPage.php</t>
+  </si>
+  <si>
+    <t>Class : AdminClass.php , function :  deleteUser($userId)
+Page : Foodies_FrontEnd_DeleteUserPage.php</t>
+  </si>
+  <si>
+    <t>Class  : PersonClass.php , function : logout()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,10 +834,9 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -808,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,10 +921,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,31 +930,188 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -886,17 +1130,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
   <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
-    <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
-    <tableColumn id="7" name="Design ID" dataDxfId="3"/>
-    <tableColumn id="8" name="Code" dataDxfId="2"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Business Requirment ID" dataDxfId="7"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
+    <tableColumn id="6" name="SRS ID" dataDxfId="5"/>
+    <tableColumn id="7" name="Design ID" dataDxfId="4"/>
+    <tableColumn id="8" name="Code" dataDxfId="3"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1446,7 @@
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
@@ -1251,9 +1495,11 @@
       <c r="E2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -1271,9 +1517,11 @@
       <c r="E3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1291,9 +1539,11 @@
       <c r="E4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1311,9 +1561,11 @@
       <c r="E5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -1331,9 +1583,11 @@
       <c r="E6" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1351,9 +1605,11 @@
       <c r="E7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1371,9 +1627,11 @@
       <c r="E8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1391,9 +1649,11 @@
       <c r="E9" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -1411,9 +1671,11 @@
       <c r="E10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -1431,9 +1693,11 @@
       <c r="E11" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1442,16 +1706,18 @@
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1469,9 +1735,11 @@
       <c r="E13" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -1489,9 +1757,11 @@
       <c r="E14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1509,9 +1779,11 @@
       <c r="E15" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="F15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -1520,18 +1792,20 @@
       <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
@@ -1547,9 +1821,11 @@
       <c r="E17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -1567,9 +1843,11 @@
       <c r="E18" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -1587,9 +1865,11 @@
       <c r="E19" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1607,9 +1887,11 @@
       <c r="E20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -1627,9 +1909,11 @@
       <c r="E21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="F21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -1647,11 +1931,11 @@
       <c r="E22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>102</v>
       </c>
@@ -1667,9 +1951,11 @@
       <c r="E23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1687,9 +1973,11 @@
       <c r="E24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="F24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -1698,16 +1986,18 @@
       <c r="B25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="F25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -1716,34 +2006,38 @@
       <c r="B26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="F27" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -1752,18 +2046,20 @@
       <c r="B28" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>108</v>
       </c>
@@ -1779,9 +2075,11 @@
       <c r="E29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -1790,16 +2088,18 @@
       <c r="B30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="F30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -1817,9 +2117,11 @@
       <c r="E31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -1837,9 +2139,11 @@
       <c r="E32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -1857,11 +2161,13 @@
       <c r="E33" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>113</v>
       </c>
@@ -1877,9 +2183,11 @@
       <c r="E34" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -1897,9 +2205,11 @@
       <c r="E35" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
+      <c r="F35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -1915,9 +2225,11 @@
       <c r="E36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -1935,9 +2247,11 @@
       <c r="E37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="F37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -1955,9 +2269,11 @@
       <c r="E38" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="F38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -1975,9 +2291,11 @@
       <c r="E39" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
+      <c r="F39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -1995,11 +2313,13 @@
       <c r="E40" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>120</v>
       </c>
@@ -2015,9 +2335,11 @@
       <c r="E41" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="F41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -2035,11 +2357,13 @@
       <c r="E42" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F42" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>122</v>
       </c>
@@ -2055,9 +2379,11 @@
       <c r="E43" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="F43" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -2075,36 +2401,40 @@
       <c r="E44" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="F44" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F45" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -2113,18 +2443,20 @@
       <c r="E46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F46" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="7" t="s">
         <v>213</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2133,18 +2465,20 @@
       <c r="E47" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F47" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="7" t="s">
         <v>221</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -2153,18 +2487,20 @@
       <c r="E48" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -2173,18 +2509,20 @@
       <c r="E49" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F49" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="7" t="s">
         <v>223</v>
       </c>
       <c r="D50" s="7" t="s">
@@ -2193,18 +2531,20 @@
       <c r="E50" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="F50" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D51" s="7" t="s">
@@ -2213,18 +2553,20 @@
       <c r="E51" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="F51" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="7" t="s">
         <v>222</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -2233,18 +2575,20 @@
       <c r="E52" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F52" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -2253,18 +2597,20 @@
       <c r="E53" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F53" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>225</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -2273,18 +2619,20 @@
       <c r="E54" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -2293,9 +2641,11 @@
       <c r="E55" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="F55" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -2304,25 +2654,27 @@
       <c r="B56" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
         <v>174</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="F56" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>141</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -2331,18 +2683,20 @@
       <c r="E57" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>216</v>
       </c>
       <c r="D58" s="7" t="s">
@@ -2351,18 +2705,20 @@
       <c r="E58" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="F58" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>217</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -2371,18 +2727,20 @@
       <c r="E59" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
+      <c r="F59" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>214</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -2391,79 +2749,81 @@
       <c r="E60" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
+      <c r="F60" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2476,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2966,19 @@
         <v>229</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -929,14 +929,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <sz val="16"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <sz val="16"/>
@@ -1114,6 +1106,14 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <sz val="16"/>
+        <name val="Cambria"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1130,17 +1130,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H67"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" name="Business Requirment ID" dataDxfId="7"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="6"/>
-    <tableColumn id="6" name="SRS ID" dataDxfId="5"/>
-    <tableColumn id="7" name="Design ID" dataDxfId="4"/>
-    <tableColumn id="8" name="Code" dataDxfId="3"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="2"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
+    <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
+    <tableColumn id="7" name="Design ID" dataDxfId="3"/>
+    <tableColumn id="8" name="Code" dataDxfId="2"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
+    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2106,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>75</v>
@@ -2128,7 +2128,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>65</v>
@@ -2150,7 +2150,7 @@
         <v>112</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>74</v>
@@ -2302,7 +2302,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>139</v>
@@ -2537,7 +2537,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="81" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>159</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>165</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>141</v>
@@ -2694,7 +2694,7 @@
         <v>166</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>216</v>
@@ -2716,7 +2716,7 @@
         <v>167</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>217</v>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -767,15 +767,7 @@
 Page : Foodies_FrontEnd_OffersPage.php</t>
   </si>
   <si>
-    <t>Class : UserClass.php , function : 
-Page : Foodies_FrontEnd_ViewMenu.php</t>
-  </si>
-  <si>
     <t>Page : Foodies_FrontEnd_UserProfile.php</t>
-  </si>
-  <si>
-    <t>Class : UserClass.php , function :
-Page : Foodies_FrontEnd_UserProfile.php</t>
   </si>
   <si>
     <t>Page : Foodies_FrontEnd_AdminProfile.php</t>
@@ -804,13 +796,27 @@
   </si>
   <si>
     <t>Class  : PersonClass.php , function : logout()</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function setFreeOrders($userid)
+Page : Foodies_FrontEnd_ViewMenu.php</t>
+  </si>
+  <si>
+    <t>Class : UserClass.php , function : getFreeOrders($userid)
+Page : Foodies_FrontEnd_UserProfile.php</t>
+  </si>
+  <si>
+    <t>V1.10</t>
+  </si>
+  <si>
+    <t>edit on Code column</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,12 +835,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -898,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,9 +919,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1435,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="C20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,7 +2098,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
@@ -2117,13 +2114,13 @@
       <c r="E31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>245</v>
+      <c r="F31" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
@@ -2139,8 +2136,8 @@
       <c r="E32" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>247</v>
+      <c r="F32" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -2162,7 +2159,7 @@
         <v>188</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -2184,7 +2181,7 @@
         <v>189</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -2206,7 +2203,7 @@
         <v>190</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -2226,7 +2223,7 @@
         <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -2270,7 +2267,7 @@
         <v>191</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -2292,7 +2289,7 @@
         <v>192</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -2336,7 +2333,7 @@
         <v>194</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -2488,7 +2485,7 @@
         <v>197</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
@@ -2510,7 +2507,7 @@
         <v>197</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
@@ -2532,7 +2529,7 @@
         <v>197</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -2554,7 +2551,7 @@
         <v>198</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2576,7 +2573,7 @@
         <v>199</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
@@ -2598,7 +2595,7 @@
         <v>200</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
@@ -2620,7 +2617,7 @@
         <v>201</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -2642,7 +2639,7 @@
         <v>200</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2750,7 +2747,7 @@
         <v>210</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -2836,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,6 +2974,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="277">
   <si>
     <t>ID</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Test Cases ID</t>
-  </si>
-  <si>
-    <t>Test Cases Status</t>
   </si>
   <si>
     <t>Design ID</t>
@@ -810,12 +807,87 @@
   </si>
   <si>
     <t>edit on Code column</t>
+  </si>
+  <si>
+    <t>Foodies_TC_001
+Foodies_TC_002</t>
+  </si>
+  <si>
+    <t>Foodies_TC_003</t>
+  </si>
+  <si>
+    <t>Foodies_TC_004
+Foodies_TC_005
+Foodies_TC_006
+Foodies_TC_007
+Foodies_TC_008</t>
+  </si>
+  <si>
+    <t>Foodies_TC_009
+Foodies_TC_010</t>
+  </si>
+  <si>
+    <t>Foodies_TC_011</t>
+  </si>
+  <si>
+    <t>Foodies_TC_012
+Foodies_TC_013</t>
+  </si>
+  <si>
+    <t>Foodies_TC_014
+Foodies_TC_015
+Foodies_TC_016
+Foodies_TC_017
+Foodies_TC_018
+Foodies_TC_019</t>
+  </si>
+  <si>
+    <t>Foodies_TC_020</t>
+  </si>
+  <si>
+    <t>Foodies_TC_021</t>
+  </si>
+  <si>
+    <t>Foodies_TC_022</t>
+  </si>
+  <si>
+    <t>Foodies_TC_023</t>
+  </si>
+  <si>
+    <t>Foodies_TC_024</t>
+  </si>
+  <si>
+    <t>Foodies_TC_049</t>
+  </si>
+  <si>
+    <t>Foodies_TC_050</t>
+  </si>
+  <si>
+    <t>Foodies_TC_051</t>
+  </si>
+  <si>
+    <t>Foodies_TC_052</t>
+  </si>
+  <si>
+    <t>Foodies_TC_053</t>
+  </si>
+  <si>
+    <t>Foodies_TC_054
+Foodies_TC_055
+Foodies_TC_056</t>
+  </si>
+  <si>
+    <t>Foodies_TC_057
+Foodies_TC_058</t>
+  </si>
+  <si>
+    <t>Foodies_TC_059</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,7 +925,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -894,11 +966,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,33 +1008,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <sz val="16"/>
-        <name val="Cambria"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <sz val="16"/>
@@ -1127,17 +1198,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H67"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="2" name="Business Requirment ID" dataDxfId="6"/>
-    <tableColumn id="3" name="SIQ ID" dataDxfId="5"/>
-    <tableColumn id="6" name="SRS ID" dataDxfId="4"/>
-    <tableColumn id="7" name="Design ID" dataDxfId="3"/>
-    <tableColumn id="8" name="Code" dataDxfId="2"/>
-    <tableColumn id="4" name="Test Cases ID" dataDxfId="1"/>
-    <tableColumn id="5" name="Test Cases Status" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G67" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G67"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="Business Requirment ID" dataDxfId="5"/>
+    <tableColumn id="3" name="SIQ ID" dataDxfId="4"/>
+    <tableColumn id="6" name="SRS ID" dataDxfId="3"/>
+    <tableColumn id="7" name="Design ID" dataDxfId="2"/>
+    <tableColumn id="8" name="Code" dataDxfId="1"/>
+    <tableColumn id="4" name="Test Cases ID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1430,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,12 +1515,11 @@
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
     <col min="6" max="6" width="61.140625" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1458,1301 +1527,1281 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="G11" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="G29" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="7" t="s">
+      <c r="B32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="E37" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="B39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="81" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="F39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="F40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="F43" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="B44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="60.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="E48" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="F51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" ht="81" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" ht="81" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="F53" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B54" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="7" t="s">
+      <c r="B55" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="E55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="B56" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="E57" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="B58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="E58" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="B59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="E59" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="B60" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="E60" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2760,9 +2809,8 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2770,9 +2818,8 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2780,9 +2827,8 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2790,9 +2836,8 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2800,9 +2845,8 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2810,9 +2854,8 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2820,7 +2863,6 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2835,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2849,140 +2891,140 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
         <v>154</v>
       </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
         <v>227</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>228</v>
-      </c>
-      <c r="C10" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" t="s">
         <v>230</v>
       </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
         <v>256</v>
       </c>
-      <c r="B12" t="s">
-        <v>257</v>
-      </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -10,12 +10,12 @@
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
     <sheet name="RevisionHistory" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="304">
   <si>
     <t>ID</t>
   </si>
@@ -882,6 +882,94 @@
   </si>
   <si>
     <t>Foodies_TC_059</t>
+  </si>
+  <si>
+    <t>Foodies_TC_060</t>
+  </si>
+  <si>
+    <t>Foodies_TC_061</t>
+  </si>
+  <si>
+    <t>Foodies_TC_062</t>
+  </si>
+  <si>
+    <t>Foodies_TC_063</t>
+  </si>
+  <si>
+    <t>Foodies_TC_064
+Foodies_TC_065
+Foodies_TC_066
+Foodies_TC_067</t>
+  </si>
+  <si>
+    <t>Foodies_TC_068</t>
+  </si>
+  <si>
+    <t>Foodies_TC_069</t>
+  </si>
+  <si>
+    <t>Foodies_TC_070
+Foodies_TC_071</t>
+  </si>
+  <si>
+    <t>Foodies_TC_072</t>
+  </si>
+  <si>
+    <t>Foodies_TC_073</t>
+  </si>
+  <si>
+    <t>Foodies_TC_074</t>
+  </si>
+  <si>
+    <t>Foodies_TC_075</t>
+  </si>
+  <si>
+    <t>Foodies_TC_076</t>
+  </si>
+  <si>
+    <t>Foodies_TC_077</t>
+  </si>
+  <si>
+    <t>Foodies_TC_078</t>
+  </si>
+  <si>
+    <t>Foodies_TC_079</t>
+  </si>
+  <si>
+    <t>Foodies_TC_080</t>
+  </si>
+  <si>
+    <t>Foodies_TC_086</t>
+  </si>
+  <si>
+    <t>Foodies_TC_087</t>
+  </si>
+  <si>
+    <t>Foodies_TC_088</t>
+  </si>
+  <si>
+    <t>Foodies_TC_089</t>
+  </si>
+  <si>
+    <t>Foodies_TC_090</t>
+  </si>
+  <si>
+    <t>Foodies_TC_081
+Foodies_TC_082</t>
+  </si>
+  <si>
+    <t>Foodies_TC_083
+Foodies_TC_084</t>
+  </si>
+  <si>
+    <t>Foodies_TC_091</t>
+  </si>
+  <si>
+    <t>Foodies_TC_092</t>
+  </si>
+  <si>
+    <t>Foodies_TC_093
+Foodies_TC_094</t>
   </si>
 </sst>
 </file>
@@ -1502,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2347,9 @@
       <c r="F34" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="8" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -2280,7 +2370,9 @@
       <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="8" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -2299,7 +2391,9 @@
       <c r="F36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="8" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -2320,7 +2414,9 @@
       <c r="F37" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="8" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -2341,7 +2437,9 @@
       <c r="F38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="9" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -2362,7 +2460,9 @@
       <c r="F39" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="8" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -2383,7 +2483,9 @@
       <c r="F40" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="8" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -2404,7 +2506,9 @@
       <c r="F41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="9" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -2425,7 +2529,9 @@
       <c r="F42" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="8" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -2446,7 +2552,9 @@
       <c r="F43" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="8" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -2467,7 +2575,9 @@
       <c r="F44" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="8" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -2486,7 +2596,9 @@
       <c r="F45" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="8" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -2507,7 +2619,9 @@
       <c r="F46" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -2528,7 +2642,9 @@
       <c r="F47" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="8" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -2549,7 +2665,9 @@
       <c r="F48" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="49" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -2570,7 +2688,9 @@
       <c r="F49" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -2591,9 +2711,11 @@
       <c r="F50" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+      <c r="G50" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
@@ -2612,7 +2734,9 @@
       <c r="F51" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="9" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -2633,7 +2757,9 @@
       <c r="F52" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="9" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -2654,7 +2780,9 @@
       <c r="F53" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="8" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -2675,7 +2803,9 @@
       <c r="F54" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -2696,7 +2826,9 @@
       <c r="F55" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="8" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -2715,7 +2847,9 @@
       <c r="F56" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="8" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -2736,7 +2870,9 @@
       <c r="F57" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="8" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -2757,7 +2893,9 @@
       <c r="F58" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
@@ -2778,7 +2916,9 @@
       <c r="F59" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="8" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -2799,7 +2939,9 @@
       <c r="F60" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="9" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -2808,7 +2950,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
@@ -2817,7 +2959,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
@@ -2826,7 +2968,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="8"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
@@ -2835,7 +2977,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="8"/>
     </row>
     <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
@@ -2844,7 +2986,7 @@
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
+      <c r="G65" s="8"/>
     </row>
     <row r="66" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
@@ -2853,7 +2995,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
@@ -2862,7 +3004,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="G67" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="300">
   <si>
     <t>ID</t>
   </si>
@@ -516,9 +516,6 @@
   </si>
   <si>
     <t>Foodies_RTM_058</t>
-  </si>
-  <si>
-    <t>Foodies_RTM_059</t>
   </si>
   <si>
     <t>Foodies_SRS_050</t>
@@ -667,13 +664,7 @@
     <t>Foodies_SIQ_053</t>
   </si>
   <si>
-    <t>Foodies_SRS_059</t>
-  </si>
-  <si>
     <t>Foodies_SIQ_038</t>
-  </si>
-  <si>
-    <t>Foodies_SIQ_060</t>
   </si>
   <si>
     <t>Foodies_SIQ_048</t>
@@ -965,11 +956,8 @@
     <t>Foodies_TC_091</t>
   </si>
   <si>
-    <t>Foodies_TC_092</t>
-  </si>
-  <si>
-    <t>Foodies_TC_093
-Foodies_TC_094</t>
+    <t>Foodies_TC_092
+Foodies_TC_093</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1274,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G67" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G66" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G66"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID" dataDxfId="6"/>
     <tableColumn id="2" name="Business Requirment ID" dataDxfId="5"/>
@@ -1588,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,10 +1635,10 @@
         <v>156</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -1667,13 +1655,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -1693,10 +1681,10 @@
         <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1713,13 +1701,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -1736,13 +1724,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1762,10 +1750,10 @@
         <v>147</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1785,10 +1773,10 @@
         <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1808,10 +1796,10 @@
         <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1822,7 +1810,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -1831,10 +1819,10 @@
         <v>147</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1845,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>24</v>
@@ -1854,10 +1842,10 @@
         <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1875,10 +1863,10 @@
         <v>147</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1898,10 +1886,10 @@
         <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -1921,10 +1909,10 @@
         <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -1941,10 +1929,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -1960,10 +1948,10 @@
         <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7"/>
     </row>
@@ -1981,10 +1969,10 @@
         <v>30</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -2002,10 +1990,10 @@
         <v>38</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -2023,10 +2011,10 @@
         <v>39</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -2047,7 +2035,7 @@
         <v>151</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -2068,7 +2056,7 @@
         <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -2105,10 +2093,10 @@
         <v>43</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2120,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>44</v>
@@ -2129,7 +2117,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -2145,10 +2133,10 @@
         <v>45</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -2167,10 +2155,10 @@
         <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2188,10 +2176,10 @@
         <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2206,13 +2194,13 @@
         <v>48</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2223,19 +2211,19 @@
         <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2253,10 +2241,10 @@
         <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2273,13 +2261,13 @@
         <v>57</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2296,13 +2284,13 @@
         <v>58</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -2319,13 +2307,13 @@
         <v>59</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2342,13 +2330,13 @@
         <v>60</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2365,13 +2353,13 @@
         <v>61</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2386,13 +2374,13 @@
         <v>62</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2412,10 +2400,10 @@
         <v>150</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2432,13 +2420,13 @@
         <v>65</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="81" x14ac:dyDescent="0.25">
@@ -2455,13 +2443,13 @@
         <v>66</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2478,13 +2466,13 @@
         <v>67</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2495,19 +2483,19 @@
         <v>143</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2524,13 +2512,13 @@
         <v>69</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2547,13 +2535,13 @@
         <v>70</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2564,7 +2552,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>72</v>
@@ -2573,10 +2561,10 @@
         <v>149</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
@@ -2594,10 +2582,10 @@
         <v>148</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2608,7 +2596,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>131</v>
@@ -2617,10 +2605,10 @@
         <v>148</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2631,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>132</v>
@@ -2640,10 +2628,10 @@
         <v>148</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2654,19 +2642,19 @@
         <v>143</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2677,19 +2665,19 @@
         <v>143</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>134</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2700,19 +2688,19 @@
         <v>143</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="101.25" x14ac:dyDescent="0.25">
@@ -2723,19 +2711,19 @@
         <v>143</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.25">
@@ -2746,19 +2734,19 @@
         <v>143</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -2769,19 +2757,19 @@
         <v>143</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2792,19 +2780,19 @@
         <v>143</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -2815,19 +2803,19 @@
         <v>143</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2839,16 +2827,16 @@
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>149</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
@@ -2862,16 +2850,16 @@
         <v>140</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
@@ -2882,66 +2870,52 @@
         <v>71</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>303</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -2996,15 +2970,6 @@
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="8"/>
-    </row>
-    <row r="67" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3124,35 +3089,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -3160,10 +3125,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
     <sheet name="RevisionHistory" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="307">
   <si>
     <t>ID</t>
   </si>
@@ -959,11 +959,33 @@
     <t>Foodies_TC_092
 Foodies_TC_093</t>
   </si>
+  <si>
+    <t>V1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add TestCases ID </t>
+  </si>
+  <si>
+    <t>Marwa el-sheshtawy</t>
+  </si>
+  <si>
+    <t>Add the missing TestCase IDS</t>
+  </si>
+  <si>
+    <t>V1.12</t>
+  </si>
+  <si>
+    <t>Foodies_TC_027</t>
+  </si>
+  <si>
+    <t>Foodies_TC_025
+Foodies_TC_026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1578,24 +1600,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -1641,7 +1663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1686,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>82</v>
       </c>
@@ -1687,7 +1709,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
@@ -1710,7 +1732,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>85</v>
       </c>
@@ -1756,7 +1778,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>86</v>
       </c>
@@ -1779,7 +1801,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>87</v>
       </c>
@@ -1802,7 +1824,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>88</v>
       </c>
@@ -1825,7 +1847,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>89</v>
       </c>
@@ -1848,7 +1870,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>90</v>
       </c>
@@ -1869,7 +1891,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +1914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>92</v>
       </c>
@@ -1915,7 +1937,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>93</v>
       </c>
@@ -1934,9 +1956,11 @@
       <c r="F15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
@@ -1953,9 +1977,11 @@
       <c r="F16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
@@ -1976,7 +2002,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
@@ -1997,7 +2023,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
@@ -2018,7 +2044,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -2039,7 +2065,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
@@ -2060,7 +2086,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -2079,7 +2105,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -2100,7 +2126,7 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -2121,7 +2147,7 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -2140,7 +2166,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -2161,7 +2187,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>105</v>
       </c>
@@ -2182,7 +2208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
@@ -2203,7 +2229,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -2226,7 +2252,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>108</v>
       </c>
@@ -2247,7 +2273,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>109</v>
       </c>
@@ -2270,7 +2296,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
@@ -2293,7 +2319,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>111</v>
       </c>
@@ -2316,7 +2342,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>112</v>
       </c>
@@ -2339,7 +2365,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>113</v>
       </c>
@@ -2362,7 +2388,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>114</v>
       </c>
@@ -2383,7 +2409,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>115</v>
       </c>
@@ -2406,7 +2432,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>116</v>
       </c>
@@ -2429,7 +2455,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>117</v>
       </c>
@@ -2452,7 +2478,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>118</v>
       </c>
@@ -2475,7 +2501,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
@@ -2498,7 +2524,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -2521,7 +2547,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -2544,7 +2570,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -2567,7 +2593,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>124</v>
       </c>
@@ -2588,7 +2614,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2611,7 +2637,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>126</v>
       </c>
@@ -2634,7 +2660,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>127</v>
       </c>
@@ -2657,7 +2683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>128</v>
       </c>
@@ -2680,7 +2706,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>129</v>
       </c>
@@ -2703,7 +2729,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
@@ -2726,7 +2752,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>159</v>
       </c>
@@ -2749,7 +2775,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>160</v>
       </c>
@@ -2772,7 +2798,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>161</v>
       </c>
@@ -2795,7 +2821,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>162</v>
       </c>
@@ -2818,7 +2844,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
@@ -2839,7 +2865,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>164</v>
       </c>
@@ -2862,7 +2888,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>165</v>
       </c>
@@ -2885,7 +2911,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>166</v>
       </c>
@@ -2908,7 +2934,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2917,7 +2943,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2926,7 +2952,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="8"/>
     </row>
-    <row r="62" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2935,7 +2961,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2944,7 +2970,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2953,7 +2979,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="8"/>
     </row>
-    <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2962,7 +2988,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="8"/>
     </row>
-    <row r="66" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2982,21 +3008,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3010,7 +3036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3021,7 +3047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3032,7 +3058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -3043,7 +3069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -3054,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
@@ -3065,7 +3091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>153</v>
       </c>
@@ -3076,7 +3102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>155</v>
       </c>
@@ -3087,7 +3113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>184</v>
       </c>
@@ -3101,7 +3127,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>223</v>
       </c>
@@ -3112,7 +3138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>226</v>
       </c>
@@ -3123,7 +3149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>252</v>
       </c>
@@ -3132,6 +3158,28 @@
       </c>
       <c r="C12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -848,9 +848,6 @@
     <t>Foodies_TC_024</t>
   </si>
   <si>
-    <t>Foodies_TC_049</t>
-  </si>
-  <si>
     <t>Foodies_TC_050</t>
   </si>
   <si>
@@ -980,6 +977,52 @@
   <si>
     <t>Foodies_TC_025
 Foodies_TC_026</t>
+  </si>
+  <si>
+    <t>Foodies_TC_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_TC_028
+Foodies_TC_031
+Foodies_TC_034
+</t>
+  </si>
+  <si>
+    <t>Foodies_TC_029
+Foodies_TC_030
+Foodies_TC_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_TC_030
+Foodies_TC_035
+</t>
+  </si>
+  <si>
+    <t>Foodies_TC_032
+Foodies_TC_033</t>
+  </si>
+  <si>
+    <t>Foodies_TC_036
+Foodies_TC_037</t>
+  </si>
+  <si>
+    <t>Foodies_TC_047
+Foodies_TC_048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_TC_038
+Foodies_TC_039
+Foodies_TC_040
+Foodies_TC_041
+Foodies_TC_042
+Foodies_TC_043
+</t>
+  </si>
+  <si>
+    <t>Foodies_TC_044</t>
+  </si>
+  <si>
+    <t>Foodies_TC_045</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,7 +2000,7 @@
         <v>232</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -1978,7 +2021,7 @@
         <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2000,9 +2043,11 @@
       <c r="F17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="G17" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
@@ -2021,7 +2066,9 @@
       <c r="F18" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -2042,9 +2089,11 @@
       <c r="F19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="G19" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -2063,7 +2112,9 @@
       <c r="F20" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -2084,9 +2135,11 @@
       <c r="F21" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -2103,7 +2156,9 @@
         <v>157</v>
       </c>
       <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -2124,9 +2179,11 @@
       <c r="F23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G23" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -2145,7 +2202,9 @@
       <c r="F24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -2164,7 +2223,9 @@
       <c r="F25" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -2184,7 +2245,7 @@
         <v>232</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2205,7 +2266,7 @@
         <v>238</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2226,7 +2287,7 @@
         <v>239</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2249,7 +2310,7 @@
         <v>240</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2270,7 +2331,7 @@
         <v>237</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2293,7 +2354,7 @@
         <v>250</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2316,7 +2377,7 @@
         <v>251</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2339,7 +2400,7 @@
         <v>242</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2362,7 +2423,7 @@
         <v>243</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2385,7 +2446,7 @@
         <v>242</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2406,7 +2467,7 @@
         <v>241</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2429,7 +2490,7 @@
         <v>231</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2452,7 +2513,7 @@
         <v>245</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
@@ -2475,7 +2536,7 @@
         <v>244</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2498,7 +2559,7 @@
         <v>239</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2521,7 +2582,7 @@
         <v>244</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2544,7 +2605,7 @@
         <v>228</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2567,7 +2628,7 @@
         <v>230</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2590,7 +2651,7 @@
         <v>237</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2611,7 +2672,7 @@
         <v>233</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2634,7 +2695,7 @@
         <v>231</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2657,7 +2718,7 @@
         <v>231</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2680,7 +2741,7 @@
         <v>242</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2703,7 +2764,7 @@
         <v>242</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2726,7 +2787,7 @@
         <v>242</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2749,7 +2810,7 @@
         <v>247</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
@@ -2772,7 +2833,7 @@
         <v>248</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2795,7 +2856,7 @@
         <v>245</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2818,7 +2879,7 @@
         <v>246</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2841,7 +2902,7 @@
         <v>245</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2862,7 +2923,7 @@
         <v>232</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2885,7 +2946,7 @@
         <v>239</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2908,7 +2969,7 @@
         <v>239</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2931,7 +2992,7 @@
         <v>249</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3162,10 +3223,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" t="s">
         <v>300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>301</v>
       </c>
       <c r="C13" t="s">
         <v>225</v>
@@ -3173,13 +3234,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_RTM.xlsx
+++ b/Documents/Foodies_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1050,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1126,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,11 +1156,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,12 +1173,18 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="16"/>
+        <color theme="1"/>
         <name val="Cambria"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1178,8 +1195,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1643,24 +1658,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="51.6640625" customWidth="1"/>
-    <col min="6" max="6" width="61.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1679,11 +1694,11 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>80</v>
       </c>
@@ -1702,11 +1717,11 @@
       <c r="F2" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
@@ -1725,11 +1740,11 @@
       <c r="F3" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>82</v>
       </c>
@@ -1748,11 +1763,11 @@
       <c r="F4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
@@ -1771,11 +1786,11 @@
       <c r="F5" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
@@ -1794,11 +1809,11 @@
       <c r="F6" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>85</v>
       </c>
@@ -1817,11 +1832,11 @@
       <c r="F7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>86</v>
       </c>
@@ -1840,11 +1855,11 @@
       <c r="F8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>87</v>
       </c>
@@ -1863,11 +1878,11 @@
       <c r="F9" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>88</v>
       </c>
@@ -1886,11 +1901,11 @@
       <c r="F10" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>89</v>
       </c>
@@ -1909,11 +1924,11 @@
       <c r="F11" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>90</v>
       </c>
@@ -1930,11 +1945,11 @@
       <c r="F12" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -1953,11 +1968,11 @@
       <c r="F13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>92</v>
       </c>
@@ -1976,11 +1991,11 @@
       <c r="F14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>93</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>94</v>
       </c>
@@ -2024,7 +2039,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>95</v>
       </c>
@@ -2047,7 +2062,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>97</v>
       </c>
@@ -2093,7 +2108,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
@@ -2116,7 +2131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
@@ -2139,7 +2154,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>100</v>
       </c>
@@ -2160,7 +2175,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>101</v>
       </c>
@@ -2183,7 +2198,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="142.80000000000001" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>102</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>104</v>
       </c>
@@ -2244,11 +2259,11 @@
       <c r="F26" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>105</v>
       </c>
@@ -2265,11 +2280,11 @@
       <c r="F27" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
@@ -2286,11 +2301,11 @@
       <c r="F28" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -2309,11 +2324,11 @@
       <c r="F29" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>108</v>
       </c>
@@ -2330,11 +2345,11 @@
       <c r="F30" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>109</v>
       </c>
@@ -2353,11 +2368,11 @@
       <c r="F31" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
@@ -2376,11 +2391,11 @@
       <c r="F32" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>111</v>
       </c>
@@ -2399,11 +2414,11 @@
       <c r="F33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>112</v>
       </c>
@@ -2422,11 +2437,11 @@
       <c r="F34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>113</v>
       </c>
@@ -2445,11 +2460,11 @@
       <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>114</v>
       </c>
@@ -2466,11 +2481,11 @@
       <c r="F36" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>115</v>
       </c>
@@ -2489,11 +2504,11 @@
       <c r="F37" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>116</v>
       </c>
@@ -2512,11 +2527,11 @@
       <c r="F38" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>117</v>
       </c>
@@ -2535,11 +2550,11 @@
       <c r="F39" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>118</v>
       </c>
@@ -2558,11 +2573,11 @@
       <c r="F40" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>119</v>
       </c>
@@ -2581,11 +2596,11 @@
       <c r="F41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>120</v>
       </c>
@@ -2604,11 +2619,11 @@
       <c r="F42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -2627,11 +2642,11 @@
       <c r="F43" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -2650,11 +2665,11 @@
       <c r="F44" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>124</v>
       </c>
@@ -2671,11 +2686,11 @@
       <c r="F45" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>125</v>
       </c>
@@ -2694,11 +2709,11 @@
       <c r="F46" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>126</v>
       </c>
@@ -2717,11 +2732,11 @@
       <c r="F47" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>127</v>
       </c>
@@ -2740,11 +2755,11 @@
       <c r="F48" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>128</v>
       </c>
@@ -2763,11 +2778,11 @@
       <c r="F49" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>129</v>
       </c>
@@ -2786,11 +2801,11 @@
       <c r="F50" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>158</v>
       </c>
@@ -2809,11 +2824,11 @@
       <c r="F51" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>159</v>
       </c>
@@ -2832,11 +2847,11 @@
       <c r="F52" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>160</v>
       </c>
@@ -2855,11 +2870,11 @@
       <c r="F53" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>161</v>
       </c>
@@ -2878,11 +2893,11 @@
       <c r="F54" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="9" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>162</v>
       </c>
@@ -2901,11 +2916,11 @@
       <c r="F55" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
@@ -2922,11 +2937,11 @@
       <c r="F56" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>164</v>
       </c>
@@ -2945,11 +2960,11 @@
       <c r="F57" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>165</v>
       </c>
@@ -2968,11 +2983,11 @@
       <c r="F58" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>166</v>
       </c>
@@ -2991,72 +3006,72 @@
       <c r="F59" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G65" s="9"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="8"/>
+      <c r="G66" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,15 +3090,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3097,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3119,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -3130,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -3141,7 +3156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>144</v>
       </c>
@@ -3152,7 +3167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>153</v>
       </c>
@@ -3163,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>155</v>
       </c>
@@ -3174,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>184</v>
       </c>
@@ -3188,7 +3203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>223</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>226</v>
       </c>
@@ -3210,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>252</v>
       </c>
@@ -3221,7 +3236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>299</v>
       </c>
@@ -3232,7 +3247,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>303</v>
       </c>
